--- a/out/BPI12/results/result_3/prova_3.0_windows.xlsx
+++ b/out/BPI12/results/result_3/prova_3.0_windows.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moret\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moret\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E5059B0-BF7F-457F-AF2C-49871E0139BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2765C8F6-F1C3-4F1B-B403-C40B8DC3A938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4AA19A85-9CF6-4B47-880A-364025855885}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>AACCEPTED</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>errore</t>
+  </si>
+  <si>
+    <t>scartate</t>
   </si>
 </sst>
 </file>
@@ -124,7 +127,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -317,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -632,19 +635,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D86C67-5936-4A20-A169-4B4423AB1EAD}">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,11 +712,14 @@
       <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,15 +784,18 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <f>SUM(B2:U2)</f>
+        <f t="shared" ref="W2:W21" si="0">SUM(B2:U2)</f>
         <v>12</v>
       </c>
-      <c r="Y2" s="24">
+      <c r="X2">
+        <v>1715</v>
+      </c>
+      <c r="Z2" s="24">
         <f>1-(B2/W2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -850,15 +860,18 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <f>SUM(B3:U3)</f>
+        <f t="shared" si="0"/>
         <v>311</v>
       </c>
-      <c r="Y3" s="24">
+      <c r="X3">
+        <v>2048</v>
+      </c>
+      <c r="Z3" s="24">
         <f>1-(C3/W3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -923,15 +936,18 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <f>SUM(B4:U4)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="Y4" s="24">
+      <c r="X4">
+        <v>1670</v>
+      </c>
+      <c r="Z4" s="24">
         <f>1-(D4/W4)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -996,15 +1012,18 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <f>SUM(B5:U5)</f>
+        <f t="shared" si="0"/>
         <v>368</v>
       </c>
-      <c r="Y5" s="24">
+      <c r="X5">
+        <v>1973</v>
+      </c>
+      <c r="Z5" s="24">
         <f>1-(E5/W5)</f>
         <v>0.97554347826086951</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1069,15 +1088,18 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <f>SUM(B6:U6)</f>
+        <f t="shared" si="0"/>
         <v>397</v>
       </c>
-      <c r="Y6" s="24">
+      <c r="X6">
+        <v>1895</v>
+      </c>
+      <c r="Z6" s="24">
         <f>1-(F6/W6)</f>
         <v>0.88161209068010071</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1142,15 +1164,18 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <f>SUM(B7:U7)</f>
+        <f t="shared" si="0"/>
         <v>483</v>
       </c>
-      <c r="Y7" s="24">
+      <c r="X7">
+        <v>7729</v>
+      </c>
+      <c r="Z7" s="24">
         <f>1-(G7/W7)</f>
         <v>0.19875776397515532</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1215,15 +1240,18 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <f>SUM(B8:U8)</f>
+        <f t="shared" si="0"/>
         <v>3208</v>
       </c>
-      <c r="Y8" s="24">
+      <c r="X8">
+        <v>3497</v>
+      </c>
+      <c r="Z8" s="24">
         <f>1-(H8/W8)</f>
         <v>0.10941396508728185</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1288,15 +1316,18 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <f>SUM(B9:U9)</f>
+        <f t="shared" si="0"/>
         <v>476</v>
       </c>
-      <c r="Y9" s="24">
+      <c r="X9">
+        <v>655</v>
+      </c>
+      <c r="Z9" s="24">
         <f>1-(I9/W9)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -1361,15 +1392,18 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <f>SUM(B10:U10)</f>
+        <f t="shared" si="0"/>
         <v>525</v>
       </c>
-      <c r="Y10" s="24">
+      <c r="X10">
+        <v>67</v>
+      </c>
+      <c r="Z10" s="24">
         <f>1-(J10/W10)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
@@ -1434,15 +1468,18 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <f>SUM(B11:U11)</f>
+        <f t="shared" si="0"/>
         <v>528</v>
       </c>
-      <c r="Y11" s="24">
+      <c r="X11">
+        <v>89</v>
+      </c>
+      <c r="Z11" s="24">
         <f>1-(K11/W11)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
@@ -1507,15 +1544,18 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <f>SUM(B12:U12)</f>
+        <f t="shared" si="0"/>
         <v>524</v>
       </c>
-      <c r="Y12" s="24">
+      <c r="X12">
+        <v>103</v>
+      </c>
+      <c r="Z12" s="24">
         <f>1-(L12/W12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
@@ -1580,15 +1620,18 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <f>SUM(B13:U13)</f>
+        <f t="shared" si="0"/>
         <v>492</v>
       </c>
-      <c r="Y13" s="24">
+      <c r="X13">
+        <v>57</v>
+      </c>
+      <c r="Z13" s="24">
         <f>1-(M13/W13)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
@@ -1653,15 +1696,18 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <f>SUM(B14:U14)</f>
+        <f t="shared" si="0"/>
         <v>1803</v>
       </c>
-      <c r="Y14" s="24">
+      <c r="X14">
+        <v>440</v>
+      </c>
+      <c r="Z14" s="24">
         <f>1-(N14/W14)</f>
         <v>0.57626178591236821</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
@@ -1726,15 +1772,18 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <f>SUM(B15:U15)</f>
+        <f t="shared" si="0"/>
         <v>558</v>
       </c>
-      <c r="Y15" s="24">
+      <c r="X15">
+        <v>541</v>
+      </c>
+      <c r="Z15" s="24">
         <f>1-(O15/W15)</f>
         <v>0.92473118279569888</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
@@ -1799,15 +1848,18 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <f>SUM(B16:U16)</f>
+        <f t="shared" si="0"/>
         <v>211</v>
       </c>
-      <c r="Y16" s="24">
+      <c r="X16">
+        <v>2221</v>
+      </c>
+      <c r="Z16" s="24">
         <f>1-(P16/W16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>15</v>
       </c>
@@ -1872,15 +1924,18 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <f>SUM(B17:U17)</f>
+        <f t="shared" si="0"/>
         <v>326</v>
       </c>
-      <c r="Y17" s="24">
+      <c r="X17">
+        <v>473</v>
+      </c>
+      <c r="Z17" s="24">
         <f>1-(Q17/W17)</f>
         <v>0.89570552147239269</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
@@ -1945,15 +2000,18 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <f>SUM(B18:U18)</f>
+        <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="Y18" s="24">
+      <c r="X18">
+        <v>43</v>
+      </c>
+      <c r="Z18" s="24">
         <f>1-(R18/W18)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
@@ -2018,15 +2076,18 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <f>SUM(B19:U19)</f>
+        <f t="shared" si="0"/>
         <v>3032</v>
       </c>
-      <c r="Y19" s="24">
+      <c r="X19">
+        <v>227</v>
+      </c>
+      <c r="Z19" s="24">
         <f>1-(S19/W19)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>18</v>
       </c>
@@ -2091,15 +2152,18 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <f>SUM(B20:U20)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="Y20" s="24">
+      <c r="X20">
+        <v>77</v>
+      </c>
+      <c r="Z20" s="24">
         <f>1-(T20/W20)</f>
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>19</v>
       </c>
@@ -2164,104 +2228,111 @@
         <v>0</v>
       </c>
       <c r="W21">
-        <f>SUM(B21:U21)</f>
+        <f t="shared" si="0"/>
         <v>732</v>
       </c>
-      <c r="Y21" s="24">
+      <c r="X21">
+        <v>2693</v>
+      </c>
+      <c r="Z21" s="24">
         <f>1-(U21/W21)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23">
-        <f>SUM(B2:B21)</f>
+        <f t="shared" ref="B23:U23" si="1">SUM(B2:B21)</f>
         <v>0</v>
       </c>
       <c r="C23">
-        <f>SUM(C2:C21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>SUM(D2:D21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>SUM(E2:E21)</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="F23">
-        <f>SUM(F2:F21)</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="G23">
-        <f>SUM(G2:G21)</f>
+        <f t="shared" si="1"/>
         <v>735</v>
       </c>
       <c r="H23">
-        <f>SUM(H2:H21)</f>
+        <f t="shared" si="1"/>
         <v>4899</v>
       </c>
       <c r="I23">
-        <f>SUM(I2:I21)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J23">
-        <f>SUM(J2:J21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23">
-        <f>SUM(K2:K21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f>SUM(L2:L21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M23">
-        <f>SUM(M2:M21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23">
-        <f>SUM(N2:N21)</f>
+        <f t="shared" si="1"/>
         <v>2651</v>
       </c>
       <c r="O23">
-        <f>SUM(O2:O21)</f>
+        <f t="shared" si="1"/>
         <v>184</v>
       </c>
       <c r="P23">
-        <f>SUM(P2:P21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f>SUM(Q2:Q21)</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="R23">
-        <f>SUM(R2:R21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S23">
-        <f>SUM(S2:S21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T23">
-        <f>SUM(T2:T21)</f>
+        <f t="shared" si="1"/>
         <v>5433</v>
       </c>
       <c r="U23">
-        <f>SUM(U2:U21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W23">
         <f>SUM(W2:W21)</f>
         <v>14220</v>
       </c>
+      <c r="X23">
+        <f>SUM(X2:X21)</f>
+        <v>28213</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2350,7 +2421,7 @@
         <v>0.29163150492264417</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2439,88 +2510,88 @@
         <v>0.21594291038708838</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
       <c r="B27" t="e">
-        <f t="shared" ref="B27:U27" si="0">2*B25*B26/(B25+B26)</f>
+        <f t="shared" ref="B27:U27" si="2">2*B25*B26/(B25+B26)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.9130434782608699E-2</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.17870722433460079</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6354679802955665</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.70482299247563829</v>
       </c>
       <c r="I27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.34306241580601704</v>
       </c>
       <c r="O27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11320754716981132</v>
       </c>
       <c r="P27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16190476190476188</v>
       </c>
       <c r="R27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5725836089672918E-3</v>
       </c>
       <c r="U27" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W27">
@@ -2528,7 +2599,7 @@
         <v>0.24814393331914947</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2537,7 +2608,7 @@
         <v>0.23824651301391558</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
